--- a/Framework/Temp/Batch1/ObjectRepository.xlsx
+++ b/Framework/Temp/Batch1/ObjectRepository.xlsx
@@ -33826,8 +33826,8 @@
   <dimension ref="A1:G965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
